--- a/resource/Paphyrus/유통사/3. 유통사_할인율설정.xlsx
+++ b/resource/Paphyrus/유통사/3. 유통사_할인율설정.xlsx
@@ -1,16 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10215"/>
-  <workbookPr defaultThemeVersion="166925"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Volumes/GoogleDrive-105122083502221498554/Shared drives/Papyrus 1차/더미데이터/2. 유통사/"/>
-    </mc:Choice>
-  </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{05F3C7F1-9A2C-D94A-A988-EB14E6732165}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="7" rupBuild="9302"/>
+  <workbookPr/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="18000" activeTab="1" xr2:uid="{0AB4D2EA-FE27-E846-9739-E8DB7023C836}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="16470"/>
   </bookViews>
   <sheets>
     <sheet name="매출 할인율" sheetId="3" r:id="rId1"/>
@@ -20,7 +14,7 @@
     <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">'매입 할인율'!$E$1:$M$24</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'매출 할인율'!$E$1:$M$24</definedName>
   </definedNames>
-  <calcPr calcId="191029"/>
+  <calcPr calcId="144525"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -40,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="344" uniqueCount="63">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="356" uniqueCount="71">
   <si>
     <t>산업용지</t>
   </si>
@@ -229,33 +223,65 @@
   </si>
   <si>
     <t>성광페이퍼</t>
+  </si>
+  <si>
+    <t>SHEET</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>BOX</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>인쇄용지</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>복사용지</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>레자크</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>모조</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>아트</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>스노우</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <numFmts count="2">
-    <numFmt numFmtId="164" formatCode="0.000\ %"/>
-    <numFmt numFmtId="165" formatCode="#,##0.0"/>
+    <numFmt numFmtId="176" formatCode="0.000\ %"/>
+    <numFmt numFmtId="177" formatCode="#,##0.0"/>
   </numFmts>
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
-      <name val="Calibri"/>
+      <name val="맑은 고딕"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="8"/>
-      <name val="Calibri"/>
+      <name val="맑은 고딕"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="12"/>
-      <name val="Calibri"/>
+      <name val="맑은 고딕"/>
       <family val="3"/>
       <charset val="129"/>
       <scheme val="minor"/>
@@ -265,6 +291,13 @@
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
+    </font>
+    <font>
+      <sz val="8"/>
+      <name val="맑은 고딕"/>
+      <family val="3"/>
+      <charset val="129"/>
+      <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="4">
@@ -307,42 +340,42 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="164" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="176" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="165" fontId="0" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="177" fontId="0" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="176" fontId="0" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="165" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="177" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="165" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="177" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="165" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="177" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="165" fontId="2" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="177" fontId="2" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="표준" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -400,7 +433,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
+        <a:latin typeface="Calibri Light"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="游ゴシック Light"/>
@@ -452,7 +485,7 @@
         <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="游ゴシック"/>
@@ -646,46 +679,46 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2415746A-014D-7B44-B457-6CFE49762821}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AM51"/>
   <sheetViews>
-    <sheetView zoomScale="40" zoomScaleNormal="80" workbookViewId="0">
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="S15" sqref="S15"/>
+      <selection pane="bottomLeft" activeCell="F20" sqref="F20"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="11.5546875" defaultRowHeight="17.25" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="10.83203125" style="1"/>
-    <col min="2" max="18" width="20.83203125" style="1" customWidth="1"/>
-    <col min="19" max="19" width="20.83203125" style="4" customWidth="1"/>
-    <col min="20" max="20" width="5.83203125" style="1" customWidth="1"/>
-    <col min="21" max="21" width="20.83203125" style="4" customWidth="1"/>
-    <col min="22" max="22" width="5.83203125" style="1" customWidth="1"/>
-    <col min="23" max="24" width="20.83203125" style="3" customWidth="1"/>
-    <col min="25" max="25" width="20.83203125" style="4" customWidth="1"/>
-    <col min="26" max="26" width="5.83203125" style="1" customWidth="1"/>
-    <col min="27" max="27" width="20.83203125" style="4" customWidth="1"/>
-    <col min="28" max="28" width="5.83203125" style="1" customWidth="1"/>
-    <col min="29" max="29" width="20.83203125" style="1" customWidth="1"/>
-    <col min="30" max="30" width="5.83203125" style="1" customWidth="1"/>
-    <col min="31" max="31" width="20.83203125" style="1" customWidth="1"/>
-    <col min="32" max="32" width="5.83203125" style="1" customWidth="1"/>
-    <col min="33" max="33" width="20.83203125" style="4" customWidth="1"/>
-    <col min="34" max="34" width="5.83203125" style="1" customWidth="1"/>
-    <col min="35" max="35" width="20.83203125" style="4" customWidth="1"/>
-    <col min="36" max="36" width="5.83203125" style="1" customWidth="1"/>
-    <col min="37" max="39" width="20.83203125" style="1" customWidth="1"/>
+    <col min="1" max="1" width="10.77734375" style="1"/>
+    <col min="2" max="18" width="20.77734375" style="1" customWidth="1"/>
+    <col min="19" max="19" width="20.77734375" style="4" customWidth="1"/>
+    <col min="20" max="20" width="5.77734375" style="1" customWidth="1"/>
+    <col min="21" max="21" width="20.77734375" style="4" customWidth="1"/>
+    <col min="22" max="22" width="5.77734375" style="1" customWidth="1"/>
+    <col min="23" max="24" width="20.77734375" style="3" customWidth="1"/>
+    <col min="25" max="25" width="20.77734375" style="4" customWidth="1"/>
+    <col min="26" max="26" width="5.77734375" style="1" customWidth="1"/>
+    <col min="27" max="27" width="20.77734375" style="4" customWidth="1"/>
+    <col min="28" max="28" width="5.77734375" style="1" customWidth="1"/>
+    <col min="29" max="29" width="20.77734375" style="1" customWidth="1"/>
+    <col min="30" max="30" width="5.77734375" style="1" customWidth="1"/>
+    <col min="31" max="31" width="20.77734375" style="1" customWidth="1"/>
+    <col min="32" max="32" width="5.77734375" style="1" customWidth="1"/>
+    <col min="33" max="33" width="20.77734375" style="4" customWidth="1"/>
+    <col min="34" max="34" width="5.77734375" style="1" customWidth="1"/>
+    <col min="35" max="35" width="20.77734375" style="4" customWidth="1"/>
+    <col min="36" max="36" width="5.77734375" style="1" customWidth="1"/>
+    <col min="37" max="39" width="20.77734375" style="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:39" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:39" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>41</v>
       </c>
@@ -804,7 +837,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="2" spans="1:39" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:39" x14ac:dyDescent="0.3">
       <c r="A2" s="1">
         <v>1</v>
       </c>
@@ -841,7 +874,7 @@
         <v>0.36</v>
       </c>
     </row>
-    <row r="3" spans="1:39" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:39" x14ac:dyDescent="0.3">
       <c r="A3" s="1">
         <v>2</v>
       </c>
@@ -877,7 +910,7 @@
         <v>0.43</v>
       </c>
     </row>
-    <row r="4" spans="1:39" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:39" x14ac:dyDescent="0.3">
       <c r="A4" s="1">
         <v>3</v>
       </c>
@@ -938,7 +971,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="5" spans="1:39" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:39" x14ac:dyDescent="0.3">
       <c r="A5" s="1">
         <v>4</v>
       </c>
@@ -999,7 +1032,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="6" spans="1:39" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:39" x14ac:dyDescent="0.3">
       <c r="A6" s="1">
         <v>5</v>
       </c>
@@ -1048,7 +1081,7 @@
         <v>0.18897</v>
       </c>
     </row>
-    <row r="7" spans="1:39" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:39" x14ac:dyDescent="0.3">
       <c r="A7" s="1">
         <v>6</v>
       </c>
@@ -1109,7 +1142,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="8" spans="1:39" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:39" x14ac:dyDescent="0.3">
       <c r="A8" s="1">
         <v>7</v>
       </c>
@@ -1139,7 +1172,7 @@
         <v>0.23</v>
       </c>
     </row>
-    <row r="9" spans="1:39" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:39" x14ac:dyDescent="0.3">
       <c r="A9" s="1">
         <v>8</v>
       </c>
@@ -1160,7 +1193,7 @@
         <v>0.17749999999999999</v>
       </c>
     </row>
-    <row r="10" spans="1:39" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:39" x14ac:dyDescent="0.3">
       <c r="A10" s="1">
         <v>9</v>
       </c>
@@ -1190,7 +1223,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="11" spans="1:39" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:39" x14ac:dyDescent="0.3">
       <c r="A11" s="1">
         <v>10</v>
       </c>
@@ -1242,7 +1275,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="12" spans="1:39" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:39" x14ac:dyDescent="0.3">
       <c r="A12" s="1">
         <v>11</v>
       </c>
@@ -1294,7 +1327,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="13" spans="1:39" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:39" x14ac:dyDescent="0.3">
       <c r="A13" s="1">
         <v>12</v>
       </c>
@@ -1304,10 +1337,19 @@
       <c r="C13" s="1" t="s">
         <v>52</v>
       </c>
+      <c r="D13" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="E13" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="F13" s="1" t="s">
+        <v>67</v>
+      </c>
       <c r="U13" s="11"/>
       <c r="V13" s="6"/>
     </row>
-    <row r="14" spans="1:39" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:39" x14ac:dyDescent="0.3">
       <c r="A14" s="1">
         <v>13</v>
       </c>
@@ -1317,10 +1359,19 @@
       <c r="C14" s="1" t="s">
         <v>52</v>
       </c>
+      <c r="D14" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="E14" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="F14" s="1" t="s">
+        <v>68</v>
+      </c>
       <c r="U14" s="11"/>
       <c r="V14" s="6"/>
     </row>
-    <row r="15" spans="1:39" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:39" x14ac:dyDescent="0.3">
       <c r="A15" s="1">
         <v>14</v>
       </c>
@@ -1330,10 +1381,19 @@
       <c r="C15" s="1" t="s">
         <v>52</v>
       </c>
+      <c r="D15" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="E15" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="F15" s="1" t="s">
+        <v>69</v>
+      </c>
       <c r="U15" s="11"/>
       <c r="V15" s="6"/>
     </row>
-    <row r="16" spans="1:39" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:39" x14ac:dyDescent="0.3">
       <c r="A16" s="1">
         <v>15</v>
       </c>
@@ -1343,10 +1403,19 @@
       <c r="C16" s="1" t="s">
         <v>52</v>
       </c>
+      <c r="D16" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="E16" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="F16" s="1" t="s">
+        <v>70</v>
+      </c>
       <c r="U16" s="11"/>
       <c r="V16" s="6"/>
     </row>
-    <row r="17" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A17" s="1">
         <v>16</v>
       </c>
@@ -1359,7 +1428,7 @@
       <c r="U17" s="11"/>
       <c r="V17" s="6"/>
     </row>
-    <row r="18" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A18" s="1">
         <v>17</v>
       </c>
@@ -1372,7 +1441,7 @@
       <c r="U18" s="11"/>
       <c r="V18" s="6"/>
     </row>
-    <row r="19" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A19" s="1">
         <v>18</v>
       </c>
@@ -1386,7 +1455,7 @@
       <c r="T19" s="6"/>
       <c r="AC19" s="4"/>
     </row>
-    <row r="20" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A20" s="1">
         <v>19</v>
       </c>
@@ -1399,7 +1468,7 @@
       <c r="S20" s="11"/>
       <c r="T20" s="6"/>
     </row>
-    <row r="21" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A21" s="1">
         <v>20</v>
       </c>
@@ -1412,7 +1481,7 @@
       <c r="S21" s="11"/>
       <c r="T21" s="6"/>
     </row>
-    <row r="22" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A22" s="1">
         <v>21</v>
       </c>
@@ -1425,7 +1494,7 @@
       <c r="S22" s="11"/>
       <c r="T22" s="6"/>
     </row>
-    <row r="23" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A23" s="1">
         <v>22</v>
       </c>
@@ -1438,7 +1507,7 @@
       <c r="S23" s="11"/>
       <c r="T23" s="6"/>
     </row>
-    <row r="24" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A24" s="1">
         <v>23</v>
       </c>
@@ -1451,7 +1520,7 @@
       <c r="S24" s="11"/>
       <c r="T24" s="6"/>
     </row>
-    <row r="25" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A25" s="1">
         <v>24</v>
       </c>
@@ -1464,7 +1533,7 @@
       <c r="S25" s="11"/>
       <c r="T25" s="6"/>
     </row>
-    <row r="26" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A26" s="1">
         <v>25</v>
       </c>
@@ -1477,7 +1546,7 @@
       <c r="S26" s="11"/>
       <c r="T26" s="6"/>
     </row>
-    <row r="27" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A27" s="1">
         <v>26</v>
       </c>
@@ -1490,7 +1559,7 @@
       <c r="S27" s="11"/>
       <c r="T27" s="6"/>
     </row>
-    <row r="28" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A28" s="1">
         <v>27</v>
       </c>
@@ -1503,7 +1572,7 @@
       <c r="S28" s="11"/>
       <c r="T28" s="6"/>
     </row>
-    <row r="29" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A29" s="1">
         <v>28</v>
       </c>
@@ -1516,7 +1585,7 @@
       <c r="S29" s="11"/>
       <c r="T29" s="6"/>
     </row>
-    <row r="30" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A30" s="1">
         <v>29</v>
       </c>
@@ -1529,7 +1598,7 @@
       <c r="S30" s="11"/>
       <c r="T30" s="6"/>
     </row>
-    <row r="31" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A31" s="1">
         <v>30</v>
       </c>
@@ -1542,7 +1611,7 @@
       <c r="S31" s="11"/>
       <c r="T31" s="6"/>
     </row>
-    <row r="32" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A32" s="1">
         <v>31</v>
       </c>
@@ -1555,7 +1624,7 @@
       <c r="S32" s="11"/>
       <c r="T32" s="6"/>
     </row>
-    <row r="33" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A33" s="1">
         <v>32</v>
       </c>
@@ -1568,7 +1637,7 @@
       <c r="S33" s="11"/>
       <c r="T33" s="6"/>
     </row>
-    <row r="34" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A34" s="1">
         <v>33</v>
       </c>
@@ -1581,7 +1650,7 @@
       <c r="S34" s="11"/>
       <c r="T34" s="6"/>
     </row>
-    <row r="35" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A35" s="1">
         <v>34</v>
       </c>
@@ -1594,7 +1663,7 @@
       <c r="S35" s="11"/>
       <c r="T35" s="6"/>
     </row>
-    <row r="36" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A36" s="1">
         <v>35</v>
       </c>
@@ -1607,7 +1676,7 @@
       <c r="S36" s="11"/>
       <c r="T36" s="6"/>
     </row>
-    <row r="37" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A37" s="1">
         <v>36</v>
       </c>
@@ -1620,7 +1689,7 @@
       <c r="S37" s="11"/>
       <c r="T37" s="6"/>
     </row>
-    <row r="38" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="38" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A38" s="1">
         <v>37</v>
       </c>
@@ -1633,7 +1702,7 @@
       <c r="S38" s="11"/>
       <c r="T38" s="6"/>
     </row>
-    <row r="39" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="39" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A39" s="1">
         <v>38</v>
       </c>
@@ -1646,7 +1715,7 @@
       <c r="U39" s="11"/>
       <c r="V39" s="6"/>
     </row>
-    <row r="40" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="40" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A40" s="1">
         <v>39</v>
       </c>
@@ -1659,7 +1728,7 @@
       <c r="U40" s="11"/>
       <c r="V40" s="6"/>
     </row>
-    <row r="41" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="41" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A41" s="1">
         <v>40</v>
       </c>
@@ -1672,7 +1741,7 @@
       <c r="U41" s="11"/>
       <c r="V41" s="6"/>
     </row>
-    <row r="42" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="42" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A42" s="1">
         <v>41</v>
       </c>
@@ -1685,7 +1754,7 @@
       <c r="U42" s="11"/>
       <c r="V42" s="6"/>
     </row>
-    <row r="43" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="43" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A43" s="1">
         <v>42</v>
       </c>
@@ -1698,7 +1767,7 @@
       <c r="U43" s="11"/>
       <c r="V43" s="6"/>
     </row>
-    <row r="44" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="44" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A44" s="1">
         <v>43</v>
       </c>
@@ -1711,7 +1780,7 @@
       <c r="U44" s="11"/>
       <c r="V44" s="6"/>
     </row>
-    <row r="45" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="45" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A45" s="1">
         <v>44</v>
       </c>
@@ -1724,7 +1793,7 @@
       <c r="U45" s="11"/>
       <c r="V45" s="6"/>
     </row>
-    <row r="46" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="46" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A46" s="1">
         <v>45</v>
       </c>
@@ -1737,7 +1806,7 @@
       <c r="U46" s="11"/>
       <c r="V46" s="6"/>
     </row>
-    <row r="47" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="47" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A47" s="1">
         <v>46</v>
       </c>
@@ -1750,7 +1819,7 @@
       <c r="U47" s="11"/>
       <c r="V47" s="6"/>
     </row>
-    <row r="48" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="48" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A48" s="1">
         <v>47</v>
       </c>
@@ -1763,7 +1832,7 @@
       <c r="U48" s="11"/>
       <c r="V48" s="6"/>
     </row>
-    <row r="49" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="49" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A49" s="1">
         <v>48</v>
       </c>
@@ -1776,7 +1845,7 @@
       <c r="U49" s="11"/>
       <c r="V49" s="6"/>
     </row>
-    <row r="50" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="50" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A50" s="1">
         <v>49</v>
       </c>
@@ -1789,7 +1858,7 @@
       <c r="U50" s="11"/>
       <c r="V50" s="6"/>
     </row>
-    <row r="51" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="51" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A51" s="1">
         <v>50</v>
       </c>
@@ -1803,8 +1872,8 @@
       <c r="V51" s="6"/>
     </row>
   </sheetData>
-  <autoFilter ref="E1:M24" xr:uid="{2415746A-014D-7B44-B457-6CFE49762821}">
-    <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="E2:M24">
+  <autoFilter ref="E1:M24">
+    <sortState ref="E2:M24">
       <sortCondition ref="E1:E24"/>
     </sortState>
   </autoFilter>
@@ -1814,39 +1883,39 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D0C28212-508C-0A4B-B221-220FF1582B73}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AM51"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="50" zoomScaleNormal="80" workbookViewId="0">
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="AI26" sqref="AI26"/>
+      <selection pane="bottomLeft" activeCell="H35" sqref="H35"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="11.5546875" defaultRowHeight="17.25" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="10.83203125" style="1"/>
-    <col min="2" max="18" width="20.83203125" style="1" customWidth="1"/>
-    <col min="19" max="19" width="20.83203125" style="4" customWidth="1"/>
-    <col min="20" max="20" width="5.83203125" style="1" customWidth="1"/>
-    <col min="21" max="21" width="20.83203125" style="4" customWidth="1"/>
-    <col min="22" max="22" width="5.83203125" style="1" customWidth="1"/>
-    <col min="23" max="24" width="20.83203125" style="3" customWidth="1"/>
-    <col min="25" max="25" width="20.83203125" style="4" customWidth="1"/>
-    <col min="26" max="26" width="5.83203125" style="1" customWidth="1"/>
-    <col min="27" max="27" width="20.83203125" style="4" customWidth="1"/>
-    <col min="28" max="28" width="5.83203125" style="1" customWidth="1"/>
-    <col min="29" max="29" width="20.83203125" style="1" customWidth="1"/>
-    <col min="30" max="30" width="5.83203125" style="1" customWidth="1"/>
-    <col min="31" max="31" width="20.83203125" style="1" customWidth="1"/>
-    <col min="32" max="32" width="5.83203125" style="1" customWidth="1"/>
-    <col min="33" max="33" width="20.83203125" style="4" customWidth="1"/>
-    <col min="34" max="34" width="5.83203125" style="1" customWidth="1"/>
-    <col min="35" max="35" width="20.83203125" style="4" customWidth="1"/>
-    <col min="36" max="36" width="5.83203125" style="1" customWidth="1"/>
-    <col min="37" max="39" width="20.83203125" style="1" customWidth="1"/>
+    <col min="1" max="1" width="10.77734375" style="1"/>
+    <col min="2" max="18" width="20.77734375" style="1" customWidth="1"/>
+    <col min="19" max="19" width="20.77734375" style="4" customWidth="1"/>
+    <col min="20" max="20" width="5.77734375" style="1" customWidth="1"/>
+    <col min="21" max="21" width="20.77734375" style="4" customWidth="1"/>
+    <col min="22" max="22" width="5.77734375" style="1" customWidth="1"/>
+    <col min="23" max="24" width="20.77734375" style="3" customWidth="1"/>
+    <col min="25" max="25" width="20.77734375" style="4" customWidth="1"/>
+    <col min="26" max="26" width="5.77734375" style="1" customWidth="1"/>
+    <col min="27" max="27" width="20.77734375" style="4" customWidth="1"/>
+    <col min="28" max="28" width="5.77734375" style="1" customWidth="1"/>
+    <col min="29" max="29" width="20.77734375" style="1" customWidth="1"/>
+    <col min="30" max="30" width="5.77734375" style="1" customWidth="1"/>
+    <col min="31" max="31" width="20.77734375" style="1" customWidth="1"/>
+    <col min="32" max="32" width="5.77734375" style="1" customWidth="1"/>
+    <col min="33" max="33" width="20.77734375" style="4" customWidth="1"/>
+    <col min="34" max="34" width="5.77734375" style="1" customWidth="1"/>
+    <col min="35" max="35" width="20.77734375" style="4" customWidth="1"/>
+    <col min="36" max="36" width="5.77734375" style="1" customWidth="1"/>
+    <col min="37" max="39" width="20.77734375" style="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:39" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:39" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>41</v>
       </c>
@@ -1965,7 +2034,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="2" spans="1:39" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:39" x14ac:dyDescent="0.3">
       <c r="A2" s="1">
         <v>1</v>
       </c>
@@ -1979,7 +2048,7 @@
       <c r="U2" s="11"/>
       <c r="V2" s="6"/>
     </row>
-    <row r="3" spans="1:39" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:39" x14ac:dyDescent="0.3">
       <c r="A3" s="1">
         <v>2</v>
       </c>
@@ -1992,7 +2061,7 @@
       <c r="U3" s="11"/>
       <c r="V3" s="6"/>
     </row>
-    <row r="4" spans="1:39" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:39" x14ac:dyDescent="0.3">
       <c r="A4" s="1">
         <v>3</v>
       </c>
@@ -2005,7 +2074,7 @@
       <c r="U4" s="13"/>
       <c r="V4" s="6"/>
     </row>
-    <row r="5" spans="1:39" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:39" x14ac:dyDescent="0.3">
       <c r="A5" s="1">
         <v>4</v>
       </c>
@@ -2018,7 +2087,7 @@
       <c r="U5" s="13"/>
       <c r="V5" s="6"/>
     </row>
-    <row r="6" spans="1:39" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:39" x14ac:dyDescent="0.3">
       <c r="A6" s="1">
         <v>5</v>
       </c>
@@ -2031,7 +2100,7 @@
       <c r="U6" s="13"/>
       <c r="V6" s="6"/>
     </row>
-    <row r="7" spans="1:39" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:39" x14ac:dyDescent="0.3">
       <c r="A7" s="1">
         <v>6</v>
       </c>
@@ -2044,7 +2113,7 @@
       <c r="U7" s="13"/>
       <c r="V7" s="6"/>
     </row>
-    <row r="8" spans="1:39" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:39" x14ac:dyDescent="0.3">
       <c r="A8" s="1">
         <v>7</v>
       </c>
@@ -2057,7 +2126,7 @@
       <c r="U8" s="11"/>
       <c r="V8" s="6"/>
     </row>
-    <row r="9" spans="1:39" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:39" x14ac:dyDescent="0.3">
       <c r="A9" s="1">
         <v>8</v>
       </c>
@@ -2070,7 +2139,7 @@
       <c r="U9" s="11"/>
       <c r="V9" s="6"/>
     </row>
-    <row r="10" spans="1:39" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:39" x14ac:dyDescent="0.3">
       <c r="A10" s="1">
         <v>9</v>
       </c>
@@ -2083,7 +2152,7 @@
       <c r="U10" s="11"/>
       <c r="V10" s="6"/>
     </row>
-    <row r="11" spans="1:39" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:39" x14ac:dyDescent="0.3">
       <c r="A11" s="1">
         <v>10</v>
       </c>
@@ -2097,7 +2166,7 @@
       <c r="U11" s="11"/>
       <c r="V11" s="6"/>
     </row>
-    <row r="12" spans="1:39" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:39" x14ac:dyDescent="0.3">
       <c r="A12" s="1">
         <v>11</v>
       </c>
@@ -2111,7 +2180,7 @@
       <c r="U12" s="11"/>
       <c r="V12" s="6"/>
     </row>
-    <row r="13" spans="1:39" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:39" x14ac:dyDescent="0.3">
       <c r="A13" s="1">
         <v>12</v>
       </c>
@@ -2124,7 +2193,7 @@
       <c r="U13" s="11"/>
       <c r="V13" s="6"/>
     </row>
-    <row r="14" spans="1:39" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:39" x14ac:dyDescent="0.3">
       <c r="A14" s="1">
         <v>13</v>
       </c>
@@ -2137,7 +2206,7 @@
       <c r="U14" s="11"/>
       <c r="V14" s="6"/>
     </row>
-    <row r="15" spans="1:39" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:39" x14ac:dyDescent="0.3">
       <c r="A15" s="1">
         <v>14</v>
       </c>
@@ -2150,7 +2219,7 @@
       <c r="U15" s="11"/>
       <c r="V15" s="6"/>
     </row>
-    <row r="16" spans="1:39" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:39" x14ac:dyDescent="0.3">
       <c r="A16" s="1">
         <v>15</v>
       </c>
@@ -2163,7 +2232,7 @@
       <c r="U16" s="11"/>
       <c r="V16" s="6"/>
     </row>
-    <row r="17" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A17" s="1">
         <v>16</v>
       </c>
@@ -2176,7 +2245,7 @@
       <c r="U17" s="11"/>
       <c r="V17" s="6"/>
     </row>
-    <row r="18" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A18" s="1">
         <v>17</v>
       </c>
@@ -2189,7 +2258,7 @@
       <c r="U18" s="11"/>
       <c r="V18" s="6"/>
     </row>
-    <row r="19" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A19" s="1">
         <v>18</v>
       </c>
@@ -2203,7 +2272,7 @@
       <c r="V19" s="6"/>
       <c r="AC19" s="4"/>
     </row>
-    <row r="20" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A20" s="1">
         <v>19</v>
       </c>
@@ -2216,7 +2285,7 @@
       <c r="U20" s="11"/>
       <c r="V20" s="6"/>
     </row>
-    <row r="21" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A21" s="1">
         <v>20</v>
       </c>
@@ -2229,7 +2298,7 @@
       <c r="S21" s="11"/>
       <c r="T21" s="6"/>
     </row>
-    <row r="22" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A22" s="1">
         <v>21</v>
       </c>
@@ -2242,7 +2311,7 @@
       <c r="S22" s="11"/>
       <c r="T22" s="6"/>
     </row>
-    <row r="23" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A23" s="1">
         <v>22</v>
       </c>
@@ -2255,7 +2324,7 @@
       <c r="S23" s="11"/>
       <c r="T23" s="6"/>
     </row>
-    <row r="24" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A24" s="1">
         <v>23</v>
       </c>
@@ -2268,7 +2337,7 @@
       <c r="S24" s="11"/>
       <c r="T24" s="6"/>
     </row>
-    <row r="25" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A25" s="1">
         <v>24</v>
       </c>
@@ -2281,7 +2350,7 @@
       <c r="S25" s="11"/>
       <c r="T25" s="6"/>
     </row>
-    <row r="26" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A26" s="1">
         <v>25</v>
       </c>
@@ -2294,7 +2363,7 @@
       <c r="S26" s="11"/>
       <c r="T26" s="6"/>
     </row>
-    <row r="27" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A27" s="1">
         <v>26</v>
       </c>
@@ -2307,7 +2376,7 @@
       <c r="U27" s="11"/>
       <c r="V27" s="6"/>
     </row>
-    <row r="28" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A28" s="1">
         <v>27</v>
       </c>
@@ -2320,7 +2389,7 @@
       <c r="U28" s="11"/>
       <c r="V28" s="6"/>
     </row>
-    <row r="29" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A29" s="1">
         <v>28</v>
       </c>
@@ -2333,7 +2402,7 @@
       <c r="U29" s="11"/>
       <c r="V29" s="6"/>
     </row>
-    <row r="30" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A30" s="1">
         <v>29</v>
       </c>
@@ -2346,7 +2415,7 @@
       <c r="U30" s="11"/>
       <c r="V30" s="6"/>
     </row>
-    <row r="31" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A31" s="1">
         <v>30</v>
       </c>
@@ -2359,7 +2428,7 @@
       <c r="U31" s="11"/>
       <c r="V31" s="6"/>
     </row>
-    <row r="32" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A32" s="1">
         <v>31</v>
       </c>
@@ -2372,7 +2441,7 @@
       <c r="U32" s="11"/>
       <c r="V32" s="6"/>
     </row>
-    <row r="33" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A33" s="1">
         <v>32</v>
       </c>
@@ -2385,7 +2454,7 @@
       <c r="U33" s="11"/>
       <c r="V33" s="6"/>
     </row>
-    <row r="34" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A34" s="1">
         <v>33</v>
       </c>
@@ -2398,7 +2467,7 @@
       <c r="U34" s="11"/>
       <c r="V34" s="6"/>
     </row>
-    <row r="35" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A35" s="1">
         <v>34</v>
       </c>
@@ -2411,7 +2480,7 @@
       <c r="U35" s="11"/>
       <c r="V35" s="6"/>
     </row>
-    <row r="36" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A36" s="1">
         <v>35</v>
       </c>
@@ -2424,7 +2493,7 @@
       <c r="U36" s="11"/>
       <c r="V36" s="6"/>
     </row>
-    <row r="37" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A37" s="1">
         <v>36</v>
       </c>
@@ -2437,7 +2506,7 @@
       <c r="U37" s="11"/>
       <c r="V37" s="6"/>
     </row>
-    <row r="38" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="38" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A38" s="1">
         <v>37</v>
       </c>
@@ -2450,7 +2519,7 @@
       <c r="U38" s="11"/>
       <c r="V38" s="6"/>
     </row>
-    <row r="39" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="39" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A39" s="1">
         <v>38</v>
       </c>
@@ -2463,7 +2532,7 @@
       <c r="U39" s="11"/>
       <c r="V39" s="6"/>
     </row>
-    <row r="40" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="40" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A40" s="1">
         <v>39</v>
       </c>
@@ -2476,7 +2545,7 @@
       <c r="U40" s="11"/>
       <c r="V40" s="6"/>
     </row>
-    <row r="41" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="41" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A41" s="1">
         <v>40</v>
       </c>
@@ -2489,7 +2558,7 @@
       <c r="U41" s="11"/>
       <c r="V41" s="6"/>
     </row>
-    <row r="42" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="42" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A42" s="1">
         <v>41</v>
       </c>
@@ -2502,7 +2571,7 @@
       <c r="U42" s="11"/>
       <c r="V42" s="6"/>
     </row>
-    <row r="43" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="43" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A43" s="1">
         <v>42</v>
       </c>
@@ -2515,7 +2584,7 @@
       <c r="U43" s="11"/>
       <c r="V43" s="6"/>
     </row>
-    <row r="44" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="44" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A44" s="1">
         <v>43</v>
       </c>
@@ -2528,7 +2597,7 @@
       <c r="U44" s="11"/>
       <c r="V44" s="6"/>
     </row>
-    <row r="45" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="45" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A45" s="1">
         <v>44</v>
       </c>
@@ -2541,7 +2610,7 @@
       <c r="U45" s="11"/>
       <c r="V45" s="6"/>
     </row>
-    <row r="46" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="46" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A46" s="1">
         <v>45</v>
       </c>
@@ -2554,7 +2623,7 @@
       <c r="U46" s="11"/>
       <c r="V46" s="6"/>
     </row>
-    <row r="47" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="47" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A47" s="1">
         <v>46</v>
       </c>
@@ -2567,7 +2636,7 @@
       <c r="U47" s="11"/>
       <c r="V47" s="6"/>
     </row>
-    <row r="48" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="48" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A48" s="1">
         <v>47</v>
       </c>
@@ -2580,7 +2649,7 @@
       <c r="U48" s="11"/>
       <c r="V48" s="6"/>
     </row>
-    <row r="49" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="49" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A49" s="1">
         <v>48</v>
       </c>
@@ -2593,7 +2662,7 @@
       <c r="U49" s="11"/>
       <c r="V49" s="6"/>
     </row>
-    <row r="50" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="50" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A50" s="1">
         <v>49</v>
       </c>
@@ -2606,7 +2675,7 @@
       <c r="U50" s="11"/>
       <c r="V50" s="6"/>
     </row>
-    <row r="51" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="51" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A51" s="1">
         <v>50</v>
       </c>
@@ -2620,11 +2689,13 @@
       <c r="V51" s="6"/>
     </row>
   </sheetData>
-  <autoFilter ref="E1:M24" xr:uid="{2415746A-014D-7B44-B457-6CFE49762821}">
-    <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="E2:M24">
+  <autoFilter ref="E1:M24">
+    <sortState ref="E2:M24">
       <sortCondition ref="E1:E24"/>
     </sortState>
   </autoFilter>
+  <phoneticPr fontId="4" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
--- a/resource/Paphyrus/유통사/3. 유통사_할인율설정.xlsx
+++ b/resource/Paphyrus/유통사/3. 유통사_할인율설정.xlsx
@@ -15,26 +15,11 @@
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'매출 할인율'!$E$1:$M$24</definedName>
   </definedNames>
   <calcPr calcId="144525"/>
-  <extLst>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
-      <x15:workbookPr chartTrackingRefBase="1"/>
-    </ext>
-    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
-      <xcalcf:calcFeatures>
-        <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:Single"/>
-        <xcalcf:feature name="microsoft.com:FV"/>
-        <xcalcf:feature name="microsoft.com:CNMTM"/>
-        <xcalcf:feature name="microsoft.com:LET_WF"/>
-        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
-      </xcalcf:calcFeatures>
-    </ext>
-  </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="356" uniqueCount="71">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="673" uniqueCount="148">
   <si>
     <t>산업용지</t>
   </si>
@@ -245,15 +230,289 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>모조</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>아트</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>스노우</t>
+    <t>레자크(A)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>백상지</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>아트지</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>네오★백상</t>
+  </si>
+  <si>
+    <t>무림페이퍼</t>
+  </si>
+  <si>
+    <t>무림페이퍼</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>삼화제지</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>양면</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>하늘/하늘</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>가죽</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>국판</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>원/R</t>
+  </si>
+  <si>
+    <t>원/R</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>네오★스노우화이트</t>
+  </si>
+  <si>
+    <t>백/백</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>전체</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>DoubleA</t>
+  </si>
+  <si>
+    <t>A4</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>원/BOX</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>B4</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>B5</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>SHEET</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>산업용지</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>인쇄용지</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>AB</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>SC</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>기타</t>
+  </si>
+  <si>
+    <t>기타</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>네오★아트</t>
+  </si>
+  <si>
+    <t>SC Manilla</t>
+  </si>
+  <si>
+    <t>FSC</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>백/회</t>
+  </si>
+  <si>
+    <t>깨끗한나라</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>원/T</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>국판(횡)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>랑데뷰</t>
+  </si>
+  <si>
+    <t>밍크</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>기능지</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>인스퍼 에코</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>한솔제지</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>마카롱(백색)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>한국제지</t>
+  </si>
+  <si>
+    <t>한국제지</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>보루지</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>대화제지</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>회/회</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>랑데뷰(N)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>4X6(횡)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>회황/회황</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>미/미</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>4X6</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>네오★코트</t>
+  </si>
+  <si>
+    <t>네오★WEB</t>
+  </si>
+  <si>
+    <t>ROLL</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>IV</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>세하제지</t>
+  </si>
+  <si>
+    <t>세하제지</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>AllyKing</t>
+  </si>
+  <si>
+    <t>FBB</t>
+  </si>
+  <si>
+    <t>AsiaSymbol</t>
+  </si>
+  <si>
+    <t>CCP</t>
+  </si>
+  <si>
+    <t>I-CCP</t>
+  </si>
+  <si>
+    <t>CWB</t>
+  </si>
+  <si>
+    <t>BOX</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>복사용지</t>
+  </si>
+  <si>
+    <t>복사용지</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>EXCELLENT</t>
+  </si>
+  <si>
+    <t>EXCELLENT Copy</t>
+  </si>
+  <si>
+    <t>April</t>
+  </si>
+  <si>
+    <t>Exkarro</t>
+  </si>
+  <si>
+    <t>한솔카피</t>
+  </si>
+  <si>
+    <t>미색</t>
+  </si>
+  <si>
+    <t>Hybrite</t>
+  </si>
+  <si>
+    <t>IK Hybrite</t>
+  </si>
+  <si>
+    <t>APP</t>
+  </si>
+  <si>
+    <t>miilk</t>
+  </si>
+  <si>
+    <t>miilk Beige</t>
+  </si>
+  <si>
+    <t>SPECTRA</t>
+  </si>
+  <si>
+    <t>노랑</t>
+  </si>
+  <si>
+    <t>미색</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -287,13 +546,15 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="8"/>
+      <name val="맑은 고딕"/>
+      <family val="3"/>
+      <charset val="129"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="12"/>
       <color theme="1"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <sz val="8"/>
       <name val="맑은 고딕"/>
       <family val="3"/>
       <charset val="129"/>
@@ -332,7 +593,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="14">
+  <cellXfs count="46">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -367,10 +628,100 @@
     <xf numFmtId="177" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="177" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="177" fontId="2" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="177" fontId="2" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -382,9 +733,6 @@
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
-    </ext>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
-      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
     </ext>
   </extLst>
 </styleSheet>
@@ -679,7 +1027,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns="" xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -689,19 +1037,19 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AM51"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="F20" sqref="F20"/>
+    <sheetView tabSelected="1" topLeftCell="D1" zoomScaleNormal="100" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A36" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="F46" sqref="F46"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.5546875" defaultRowHeight="17.25" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="17.25" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="10.77734375" style="1"/>
     <col min="2" max="18" width="20.77734375" style="1" customWidth="1"/>
     <col min="19" max="19" width="20.77734375" style="4" customWidth="1"/>
-    <col min="20" max="20" width="5.77734375" style="1" customWidth="1"/>
+    <col min="20" max="20" width="7.44140625" style="1" bestFit="1" customWidth="1"/>
     <col min="21" max="21" width="20.77734375" style="4" customWidth="1"/>
-    <col min="22" max="22" width="5.77734375" style="1" customWidth="1"/>
+    <col min="22" max="22" width="7.44140625" style="1" bestFit="1" customWidth="1"/>
     <col min="23" max="24" width="20.77734375" style="3" customWidth="1"/>
     <col min="25" max="25" width="20.77734375" style="4" customWidth="1"/>
     <col min="26" max="26" width="5.77734375" style="1" customWidth="1"/>
@@ -712,9 +1060,9 @@
     <col min="31" max="31" width="20.77734375" style="1" customWidth="1"/>
     <col min="32" max="32" width="5.77734375" style="1" customWidth="1"/>
     <col min="33" max="33" width="20.77734375" style="4" customWidth="1"/>
-    <col min="34" max="34" width="5.77734375" style="1" customWidth="1"/>
+    <col min="34" max="34" width="7.44140625" style="1" bestFit="1" customWidth="1"/>
     <col min="35" max="35" width="20.77734375" style="4" customWidth="1"/>
-    <col min="36" max="36" width="5.77734375" style="1" customWidth="1"/>
+    <col min="36" max="36" width="7.44140625" style="1" bestFit="1" customWidth="1"/>
     <col min="37" max="39" width="20.77734375" style="1" customWidth="1"/>
   </cols>
   <sheetData>
@@ -950,7 +1298,7 @@
       <c r="T4" s="1" t="s">
         <v>48</v>
       </c>
-      <c r="U4" s="13"/>
+      <c r="U4" s="12"/>
       <c r="V4" s="6"/>
       <c r="W4" s="3">
         <v>7.3099999999999998E-2</v>
@@ -1011,7 +1359,7 @@
       <c r="T5" s="1" t="s">
         <v>48</v>
       </c>
-      <c r="U5" s="13"/>
+      <c r="U5" s="12"/>
       <c r="V5" s="6"/>
       <c r="W5" s="3">
         <v>9.3899999999999997E-2</v>
@@ -1072,7 +1420,7 @@
       <c r="T6" s="1" t="s">
         <v>48</v>
       </c>
-      <c r="U6" s="13"/>
+      <c r="U6" s="12"/>
       <c r="V6" s="6"/>
       <c r="W6" s="9">
         <v>0.11504</v>
@@ -1121,7 +1469,7 @@
       <c r="T7" s="1" t="s">
         <v>48</v>
       </c>
-      <c r="U7" s="13"/>
+      <c r="U7" s="12"/>
       <c r="V7" s="6"/>
       <c r="W7" s="3">
         <v>0.15190999999999999</v>
@@ -1248,7 +1596,7 @@
       <c r="I11" s="2">
         <v>200</v>
       </c>
-      <c r="S11" s="12">
+      <c r="S11" s="14">
         <v>2919.7</v>
       </c>
       <c r="T11" s="1" t="s">
@@ -1300,7 +1648,7 @@
       <c r="I12" s="2">
         <v>450</v>
       </c>
-      <c r="S12" s="12">
+      <c r="S12" s="14">
         <v>2753.9</v>
       </c>
       <c r="T12" s="1" t="s">
@@ -1346,8 +1694,66 @@
       <c r="F13" s="1" t="s">
         <v>67</v>
       </c>
-      <c r="U13" s="11"/>
-      <c r="V13" s="6"/>
+      <c r="G13" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="H13" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="I13" s="1">
+        <v>200</v>
+      </c>
+      <c r="J13" s="1" t="s">
+        <v>95</v>
+      </c>
+      <c r="K13" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="L13" s="1" t="s">
+        <v>77</v>
+      </c>
+      <c r="N13" s="13" t="s">
+        <v>44</v>
+      </c>
+      <c r="O13" s="13">
+        <v>788</v>
+      </c>
+      <c r="P13" s="13">
+        <v>1091</v>
+      </c>
+      <c r="R13" s="1">
+        <v>500</v>
+      </c>
+      <c r="S13" s="4">
+        <v>3910.7</v>
+      </c>
+      <c r="T13" s="13" t="s">
+        <v>50</v>
+      </c>
+      <c r="U13" s="4">
+        <v>3910.7</v>
+      </c>
+      <c r="V13" s="17" t="s">
+        <v>50</v>
+      </c>
+      <c r="W13" s="3">
+        <v>0.1</v>
+      </c>
+      <c r="X13" s="3">
+        <v>0.28000000000000003</v>
+      </c>
+      <c r="Y13" s="4">
+        <v>3833.6</v>
+      </c>
+      <c r="Z13" s="13" t="s">
+        <v>50</v>
+      </c>
+      <c r="AA13" s="4">
+        <v>3067.8</v>
+      </c>
+      <c r="AB13" s="13" t="s">
+        <v>50</v>
+      </c>
     </row>
     <row r="14" spans="1:39" x14ac:dyDescent="0.3">
       <c r="A14" s="1">
@@ -1366,10 +1772,85 @@
         <v>65</v>
       </c>
       <c r="F14" s="1" t="s">
-        <v>68</v>
-      </c>
-      <c r="U14" s="11"/>
-      <c r="V14" s="6"/>
+        <v>69</v>
+      </c>
+      <c r="G14" s="13" t="s">
+        <v>71</v>
+      </c>
+      <c r="H14" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="I14" s="1">
+        <v>80</v>
+      </c>
+      <c r="J14" s="17" t="s">
+        <v>95</v>
+      </c>
+      <c r="K14" s="13" t="s">
+        <v>14</v>
+      </c>
+      <c r="M14" s="13" t="s">
+        <v>47</v>
+      </c>
+      <c r="N14" s="13" t="s">
+        <v>78</v>
+      </c>
+      <c r="O14" s="13">
+        <v>636</v>
+      </c>
+      <c r="P14" s="13">
+        <v>939</v>
+      </c>
+      <c r="R14" s="1">
+        <v>500</v>
+      </c>
+      <c r="S14" s="4">
+        <v>43130</v>
+      </c>
+      <c r="T14" s="13" t="s">
+        <v>80</v>
+      </c>
+      <c r="U14" s="4">
+        <v>43130</v>
+      </c>
+      <c r="V14" s="17" t="s">
+        <v>80</v>
+      </c>
+      <c r="W14" s="3">
+        <v>0.19</v>
+      </c>
+      <c r="X14" s="3">
+        <v>0.21</v>
+      </c>
+      <c r="Y14" s="4">
+        <v>1462.5</v>
+      </c>
+      <c r="Z14" s="13" t="s">
+        <v>50</v>
+      </c>
+      <c r="AA14" s="4">
+        <v>1426.3</v>
+      </c>
+      <c r="AB14" s="13" t="s">
+        <v>50</v>
+      </c>
+      <c r="AC14" s="4">
+        <f>S14*(1-W14)</f>
+        <v>34935.300000000003</v>
+      </c>
+      <c r="AD14" s="1" t="s">
+        <v>80</v>
+      </c>
+      <c r="AE14" s="4">
+        <f>S14*(1-X14)</f>
+        <v>34072.700000000004</v>
+      </c>
+      <c r="AF14" s="13" t="s">
+        <v>80</v>
+      </c>
+      <c r="AK14" s="3">
+        <v>0.19</v>
+      </c>
     </row>
     <row r="15" spans="1:39" x14ac:dyDescent="0.3">
       <c r="A15" s="1">
@@ -1388,10 +1869,82 @@
         <v>65</v>
       </c>
       <c r="F15" s="1" t="s">
-        <v>69</v>
-      </c>
-      <c r="U15" s="11"/>
-      <c r="V15" s="6"/>
+        <v>70</v>
+      </c>
+      <c r="G15" s="15" t="s">
+        <v>81</v>
+      </c>
+      <c r="H15" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="I15" s="1">
+        <v>200</v>
+      </c>
+      <c r="J15" s="17" t="s">
+        <v>95</v>
+      </c>
+      <c r="K15" s="1" t="s">
+        <v>82</v>
+      </c>
+      <c r="M15" s="1" t="s">
+        <v>83</v>
+      </c>
+      <c r="N15" s="15" t="s">
+        <v>44</v>
+      </c>
+      <c r="O15" s="15">
+        <v>788</v>
+      </c>
+      <c r="P15" s="15">
+        <v>1091</v>
+      </c>
+      <c r="R15" s="1">
+        <v>500</v>
+      </c>
+      <c r="S15" s="4">
+        <v>155700</v>
+      </c>
+      <c r="T15" s="15" t="s">
+        <v>80</v>
+      </c>
+      <c r="U15" s="4">
+        <v>155700</v>
+      </c>
+      <c r="V15" s="17" t="s">
+        <v>80</v>
+      </c>
+      <c r="W15" s="3">
+        <v>0.19</v>
+      </c>
+      <c r="X15" s="3">
+        <v>0.21</v>
+      </c>
+      <c r="Y15" s="4">
+        <v>1467</v>
+      </c>
+      <c r="Z15" s="15" t="s">
+        <v>50</v>
+      </c>
+      <c r="AA15" s="4">
+        <v>1430.7</v>
+      </c>
+      <c r="AB15" s="15" t="s">
+        <v>50</v>
+      </c>
+      <c r="AC15" s="4">
+        <f>S15*(1-W15)</f>
+        <v>126117.00000000001</v>
+      </c>
+      <c r="AD15" s="15" t="s">
+        <v>80</v>
+      </c>
+      <c r="AE15" s="4">
+        <f>S15*(1-X15)</f>
+        <v>123003</v>
+      </c>
+      <c r="AF15" s="15" t="s">
+        <v>80</v>
+      </c>
     </row>
     <row r="16" spans="1:39" x14ac:dyDescent="0.3">
       <c r="A16" s="1">
@@ -1409,13 +1962,65 @@
       <c r="E16" s="1" t="s">
         <v>66</v>
       </c>
-      <c r="F16" s="1" t="s">
-        <v>70</v>
-      </c>
-      <c r="U16" s="11"/>
-      <c r="V16" s="6"/>
-    </row>
-    <row r="17" spans="1:29" x14ac:dyDescent="0.3">
+      <c r="F16" s="16" t="s">
+        <v>84</v>
+      </c>
+      <c r="G16" s="17" t="s">
+        <v>84</v>
+      </c>
+      <c r="H16" s="17" t="s">
+        <v>84</v>
+      </c>
+      <c r="I16" s="1">
+        <v>80</v>
+      </c>
+      <c r="J16" s="17" t="s">
+        <v>95</v>
+      </c>
+      <c r="K16" s="1" t="s">
+        <v>82</v>
+      </c>
+      <c r="M16" s="17" t="s">
+        <v>83</v>
+      </c>
+      <c r="N16" s="1" t="s">
+        <v>85</v>
+      </c>
+      <c r="O16" s="1">
+        <v>210</v>
+      </c>
+      <c r="P16" s="1">
+        <v>297</v>
+      </c>
+      <c r="R16" s="1">
+        <v>500</v>
+      </c>
+      <c r="S16" s="4">
+        <v>20200</v>
+      </c>
+      <c r="T16" s="17" t="s">
+        <v>86</v>
+      </c>
+      <c r="U16" s="4">
+        <v>20200</v>
+      </c>
+      <c r="V16" s="17" t="s">
+        <v>86</v>
+      </c>
+      <c r="AG16" s="4">
+        <v>21000</v>
+      </c>
+      <c r="AH16" s="17" t="s">
+        <v>55</v>
+      </c>
+      <c r="AI16" s="4">
+        <v>20500</v>
+      </c>
+      <c r="AJ16" s="17" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="17" spans="1:37" x14ac:dyDescent="0.3">
       <c r="A17" s="1">
         <v>16</v>
       </c>
@@ -1425,10 +2030,39 @@
       <c r="C17" s="1" t="s">
         <v>52</v>
       </c>
+      <c r="D17" s="17" t="s">
+        <v>64</v>
+      </c>
+      <c r="E17" s="17" t="s">
+        <v>66</v>
+      </c>
+      <c r="I17" s="1">
+        <v>80</v>
+      </c>
+      <c r="J17" s="17" t="s">
+        <v>95</v>
+      </c>
+      <c r="K17" s="1" t="s">
+        <v>117</v>
+      </c>
+      <c r="M17" s="17" t="s">
+        <v>83</v>
+      </c>
+      <c r="N17" s="17" t="s">
+        <v>87</v>
+      </c>
+      <c r="O17" s="1">
+        <v>257</v>
+      </c>
+      <c r="P17" s="1">
+        <v>364</v>
+      </c>
+      <c r="S17" s="11"/>
+      <c r="T17" s="6"/>
       <c r="U17" s="11"/>
       <c r="V17" s="6"/>
     </row>
-    <row r="18" spans="1:29" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:37" x14ac:dyDescent="0.3">
       <c r="A18" s="1">
         <v>17</v>
       </c>
@@ -1438,10 +2072,39 @@
       <c r="C18" s="1" t="s">
         <v>52</v>
       </c>
+      <c r="D18" s="17" t="s">
+        <v>64</v>
+      </c>
+      <c r="E18" s="17" t="s">
+        <v>66</v>
+      </c>
+      <c r="I18" s="1">
+        <v>80</v>
+      </c>
+      <c r="J18" s="17" t="s">
+        <v>95</v>
+      </c>
+      <c r="K18" s="26" t="s">
+        <v>117</v>
+      </c>
+      <c r="M18" s="17" t="s">
+        <v>83</v>
+      </c>
+      <c r="N18" s="17" t="s">
+        <v>88</v>
+      </c>
+      <c r="O18" s="1">
+        <v>182</v>
+      </c>
+      <c r="P18" s="1">
+        <v>257</v>
+      </c>
+      <c r="S18" s="11"/>
+      <c r="T18" s="6"/>
       <c r="U18" s="11"/>
       <c r="V18" s="6"/>
     </row>
-    <row r="19" spans="1:29" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:37" x14ac:dyDescent="0.3">
       <c r="A19" s="1">
         <v>18</v>
       </c>
@@ -1451,11 +2114,71 @@
       <c r="C19" s="1" t="s">
         <v>53</v>
       </c>
+      <c r="D19" s="1" t="s">
+        <v>89</v>
+      </c>
+      <c r="E19" s="1" t="s">
+        <v>90</v>
+      </c>
+      <c r="F19" s="1" t="s">
+        <v>92</v>
+      </c>
+      <c r="G19" s="20" t="s">
+        <v>8</v>
+      </c>
+      <c r="H19" s="20" t="s">
+        <v>6</v>
+      </c>
+      <c r="I19" s="1">
+        <v>230</v>
+      </c>
+      <c r="J19" s="22" t="s">
+        <v>15</v>
+      </c>
+      <c r="K19" s="22" t="s">
+        <v>14</v>
+      </c>
+      <c r="M19" s="1" t="s">
+        <v>98</v>
+      </c>
+      <c r="N19" s="22" t="s">
+        <v>44</v>
+      </c>
+      <c r="O19" s="1">
+        <v>788</v>
+      </c>
+      <c r="P19" s="1">
+        <v>1091</v>
+      </c>
       <c r="S19" s="11"/>
       <c r="T19" s="6"/>
+      <c r="U19" s="4">
+        <v>2910000</v>
+      </c>
+      <c r="V19" s="1" t="s">
+        <v>101</v>
+      </c>
+      <c r="W19" s="3">
+        <v>0.33</v>
+      </c>
+      <c r="X19" s="3">
+        <v>0.34200000000000003</v>
+      </c>
+      <c r="Y19" s="4">
+        <v>1949.7</v>
+      </c>
+      <c r="Z19" s="24" t="s">
+        <v>50</v>
+      </c>
+      <c r="AA19" s="4">
+        <v>1914.8</v>
+      </c>
+      <c r="AB19" s="24" t="s">
+        <v>50</v>
+      </c>
       <c r="AC19" s="4"/>
     </row>
-    <row r="20" spans="1:29" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:37" x14ac:dyDescent="0.3">
       <c r="A20" s="1">
         <v>19</v>
       </c>
@@ -1465,10 +2188,72 @@
       <c r="C20" s="1" t="s">
         <v>53</v>
       </c>
+      <c r="D20" s="17" t="s">
+        <v>89</v>
+      </c>
+      <c r="E20" s="17" t="s">
+        <v>90</v>
+      </c>
+      <c r="F20" s="1" t="s">
+        <v>93</v>
+      </c>
+      <c r="G20" s="19" t="s">
+        <v>97</v>
+      </c>
+      <c r="H20" s="1" t="s">
+        <v>100</v>
+      </c>
+      <c r="I20" s="1">
+        <v>300</v>
+      </c>
+      <c r="J20" s="23" t="s">
+        <v>15</v>
+      </c>
+      <c r="K20" s="23" t="s">
+        <v>99</v>
+      </c>
+      <c r="M20" s="1" t="s">
+        <v>83</v>
+      </c>
+      <c r="N20" s="24" t="s">
+        <v>44</v>
+      </c>
+      <c r="O20" s="1">
+        <v>788</v>
+      </c>
+      <c r="P20" s="1">
+        <v>1091</v>
+      </c>
       <c r="S20" s="11"/>
       <c r="T20" s="6"/>
-    </row>
-    <row r="21" spans="1:29" x14ac:dyDescent="0.3">
+      <c r="U20" s="4">
+        <v>3005000</v>
+      </c>
+      <c r="V20" s="24" t="s">
+        <v>101</v>
+      </c>
+      <c r="W20" s="3">
+        <v>0.33</v>
+      </c>
+      <c r="X20" s="3">
+        <v>0.36799999999999999</v>
+      </c>
+      <c r="Y20" s="4">
+        <f>$U$20/1000*(1-W20)</f>
+        <v>2013.3499999999997</v>
+      </c>
+      <c r="Z20" s="24" t="s">
+        <v>50</v>
+      </c>
+      <c r="AA20" s="4">
+        <f>U20/1000*(1-X20)</f>
+        <v>1899.16</v>
+      </c>
+      <c r="AB20" s="24" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="21" spans="1:37" x14ac:dyDescent="0.3">
       <c r="A21" s="1">
         <v>20</v>
       </c>
@@ -1478,10 +2263,70 @@
       <c r="C21" s="1" t="s">
         <v>53</v>
       </c>
+      <c r="D21" s="17"/>
+      <c r="E21" s="17" t="s">
+        <v>90</v>
+      </c>
+      <c r="F21" s="1" t="s">
+        <v>92</v>
+      </c>
+      <c r="G21" s="21" t="s">
+        <v>8</v>
+      </c>
+      <c r="H21" s="21" t="s">
+        <v>6</v>
+      </c>
+      <c r="I21" s="1">
+        <v>300</v>
+      </c>
+      <c r="J21" s="22" t="s">
+        <v>15</v>
+      </c>
+      <c r="K21" s="22" t="s">
+        <v>14</v>
+      </c>
+      <c r="M21" s="24" t="s">
+        <v>83</v>
+      </c>
+      <c r="N21" s="24" t="s">
+        <v>44</v>
+      </c>
+      <c r="O21" s="1">
+        <v>788</v>
+      </c>
+      <c r="P21" s="1">
+        <v>1091</v>
+      </c>
       <c r="S21" s="11"/>
       <c r="T21" s="6"/>
-    </row>
-    <row r="22" spans="1:29" x14ac:dyDescent="0.3">
+      <c r="U21" s="4">
+        <v>3012000</v>
+      </c>
+      <c r="V21" s="24" t="s">
+        <v>101</v>
+      </c>
+      <c r="W21" s="3">
+        <v>0.33</v>
+      </c>
+      <c r="X21" s="3">
+        <v>0.34200000000000003</v>
+      </c>
+      <c r="Y21" s="4">
+        <f>U21/1000*(1-W21)</f>
+        <v>2018.0399999999997</v>
+      </c>
+      <c r="Z21" s="24" t="s">
+        <v>50</v>
+      </c>
+      <c r="AA21" s="4">
+        <f t="shared" ref="AA21:AA23" si="0">U21/1000*(1-X21)</f>
+        <v>1981.8959999999997</v>
+      </c>
+      <c r="AB21" s="24" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="22" spans="1:37" x14ac:dyDescent="0.3">
       <c r="A22" s="1">
         <v>21</v>
       </c>
@@ -1491,10 +2336,70 @@
       <c r="C22" s="1" t="s">
         <v>53</v>
       </c>
+      <c r="D22" s="17"/>
+      <c r="E22" s="17" t="s">
+        <v>90</v>
+      </c>
+      <c r="F22" s="1" t="s">
+        <v>93</v>
+      </c>
+      <c r="G22" s="19" t="s">
+        <v>97</v>
+      </c>
+      <c r="H22" s="24" t="s">
+        <v>100</v>
+      </c>
+      <c r="I22" s="1">
+        <v>300</v>
+      </c>
+      <c r="J22" s="24" t="s">
+        <v>15</v>
+      </c>
+      <c r="K22" s="24" t="s">
+        <v>99</v>
+      </c>
+      <c r="M22" s="1" t="s">
+        <v>98</v>
+      </c>
+      <c r="N22" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="O22" s="1">
+        <v>636</v>
+      </c>
+      <c r="P22" s="1">
+        <v>939</v>
+      </c>
       <c r="S22" s="11"/>
       <c r="T22" s="6"/>
-    </row>
-    <row r="23" spans="1:29" x14ac:dyDescent="0.3">
+      <c r="U22" s="4">
+        <v>2886000</v>
+      </c>
+      <c r="V22" s="24" t="s">
+        <v>101</v>
+      </c>
+      <c r="W22" s="3">
+        <v>0.33</v>
+      </c>
+      <c r="X22" s="3">
+        <v>0.36799999999999999</v>
+      </c>
+      <c r="Y22" s="4">
+        <f>U22/1000*(1-W22)</f>
+        <v>1933.62</v>
+      </c>
+      <c r="Z22" s="24" t="s">
+        <v>50</v>
+      </c>
+      <c r="AA22" s="4">
+        <f t="shared" si="0"/>
+        <v>1823.952</v>
+      </c>
+      <c r="AB22" s="24" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="23" spans="1:37" x14ac:dyDescent="0.3">
       <c r="A23" s="1">
         <v>22</v>
       </c>
@@ -1504,10 +2409,78 @@
       <c r="C23" s="1" t="s">
         <v>53</v>
       </c>
+      <c r="D23" s="17" t="s">
+        <v>89</v>
+      </c>
+      <c r="E23" s="1" t="s">
+        <v>91</v>
+      </c>
+      <c r="F23" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="G23" s="18" t="s">
+        <v>96</v>
+      </c>
+      <c r="H23" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="I23" s="1">
+        <v>220</v>
+      </c>
+      <c r="J23" s="1" t="s">
+        <v>95</v>
+      </c>
+      <c r="K23" s="24" t="s">
+        <v>82</v>
+      </c>
+      <c r="M23" s="1" t="s">
+        <v>83</v>
+      </c>
+      <c r="N23" s="1" t="s">
+        <v>102</v>
+      </c>
+      <c r="O23" s="1">
+        <v>936</v>
+      </c>
+      <c r="P23" s="1">
+        <v>636</v>
+      </c>
+      <c r="R23" s="1">
+        <v>500</v>
+      </c>
       <c r="S23" s="11"/>
       <c r="T23" s="6"/>
-    </row>
-    <row r="24" spans="1:29" x14ac:dyDescent="0.3">
+      <c r="U23" s="4">
+        <v>118980</v>
+      </c>
+      <c r="V23" s="1" t="s">
+        <v>80</v>
+      </c>
+      <c r="W23" s="3">
+        <v>0.185</v>
+      </c>
+      <c r="X23" s="3">
+        <v>0.215</v>
+      </c>
+      <c r="Z23" s="24"/>
+      <c r="AB23" s="24"/>
+      <c r="AC23" s="1">
+        <v>96968.7</v>
+      </c>
+      <c r="AD23" s="1" t="s">
+        <v>79</v>
+      </c>
+      <c r="AE23" s="1">
+        <v>93399.3</v>
+      </c>
+      <c r="AF23" s="1" t="s">
+        <v>79</v>
+      </c>
+      <c r="AK23" s="3">
+        <v>0.185</v>
+      </c>
+    </row>
+    <row r="24" spans="1:37" x14ac:dyDescent="0.3">
       <c r="A24" s="1">
         <v>23</v>
       </c>
@@ -1517,10 +2490,69 @@
       <c r="C24" s="1" t="s">
         <v>53</v>
       </c>
+      <c r="D24" s="1" t="s">
+        <v>89</v>
+      </c>
+      <c r="E24" s="1" t="s">
+        <v>91</v>
+      </c>
+      <c r="F24" s="25" t="s">
+        <v>103</v>
+      </c>
+      <c r="G24" s="26" t="s">
+        <v>114</v>
+      </c>
+      <c r="H24" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="I24" s="1">
+        <v>130</v>
+      </c>
+      <c r="M24" s="1" t="s">
+        <v>83</v>
+      </c>
+      <c r="N24" s="1" t="s">
+        <v>115</v>
+      </c>
+      <c r="O24" s="1">
+        <v>1091</v>
+      </c>
+      <c r="P24" s="1">
+        <v>788</v>
+      </c>
       <c r="S24" s="11"/>
       <c r="T24" s="6"/>
-    </row>
-    <row r="25" spans="1:29" x14ac:dyDescent="0.3">
+      <c r="U24" s="4">
+        <v>207240</v>
+      </c>
+      <c r="V24" s="26" t="s">
+        <v>80</v>
+      </c>
+      <c r="W24" s="3">
+        <v>0.16500000000000001</v>
+      </c>
+      <c r="X24" s="3">
+        <v>0.19350000000000001</v>
+      </c>
+      <c r="AC24" s="4">
+        <f>U24*(1-W24)</f>
+        <v>173045.4</v>
+      </c>
+      <c r="AD24" s="26" t="s">
+        <v>79</v>
+      </c>
+      <c r="AE24" s="4">
+        <f>U24*(1-X24)</f>
+        <v>167139.06</v>
+      </c>
+      <c r="AF24" s="26" t="s">
+        <v>79</v>
+      </c>
+      <c r="AK24" s="3">
+        <v>0.16500000000000001</v>
+      </c>
+    </row>
+    <row r="25" spans="1:37" x14ac:dyDescent="0.3">
       <c r="A25" s="1">
         <v>24</v>
       </c>
@@ -1530,10 +2562,69 @@
       <c r="C25" s="1" t="s">
         <v>53</v>
       </c>
+      <c r="D25" s="1" t="s">
+        <v>89</v>
+      </c>
+      <c r="E25" s="1" t="s">
+        <v>91</v>
+      </c>
+      <c r="F25" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="G25" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="H25" s="26" t="s">
+        <v>74</v>
+      </c>
+      <c r="I25" s="1">
+        <v>120</v>
+      </c>
+      <c r="J25" s="1" t="s">
+        <v>95</v>
+      </c>
+      <c r="K25" s="1" t="s">
+        <v>116</v>
+      </c>
+      <c r="N25" s="1" t="s">
+        <v>118</v>
+      </c>
+      <c r="O25" s="1">
+        <v>788</v>
+      </c>
+      <c r="P25" s="1">
+        <v>1091</v>
+      </c>
       <c r="S25" s="11"/>
       <c r="T25" s="6"/>
-    </row>
-    <row r="26" spans="1:29" x14ac:dyDescent="0.3">
+      <c r="U25" s="4">
+        <v>183954</v>
+      </c>
+      <c r="V25" s="26" t="s">
+        <v>80</v>
+      </c>
+      <c r="W25" s="3">
+        <v>0.08</v>
+      </c>
+      <c r="X25" s="3">
+        <v>0.36</v>
+      </c>
+      <c r="AC25" s="4">
+        <f>U25*(1-W25)</f>
+        <v>169237.68</v>
+      </c>
+      <c r="AD25" s="26" t="s">
+        <v>79</v>
+      </c>
+      <c r="AE25" s="4">
+        <f>U25*(1-X25)</f>
+        <v>117730.56</v>
+      </c>
+      <c r="AF25" s="26" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="26" spans="1:37" x14ac:dyDescent="0.3">
       <c r="A26" s="1">
         <v>25</v>
       </c>
@@ -1543,10 +2634,66 @@
       <c r="C26" s="1" t="s">
         <v>53</v>
       </c>
+      <c r="D26" s="1" t="s">
+        <v>89</v>
+      </c>
+      <c r="E26" s="1" t="s">
+        <v>91</v>
+      </c>
+      <c r="F26" s="1" t="s">
+        <v>105</v>
+      </c>
+      <c r="G26" s="1" t="s">
+        <v>106</v>
+      </c>
+      <c r="H26" s="1" t="s">
+        <v>107</v>
+      </c>
+      <c r="I26" s="1">
+        <v>145</v>
+      </c>
+      <c r="J26" s="1" t="s">
+        <v>95</v>
+      </c>
+      <c r="N26" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="O26" s="1">
+        <v>636</v>
+      </c>
+      <c r="P26" s="1">
+        <v>939</v>
+      </c>
       <c r="S26" s="11"/>
       <c r="T26" s="6"/>
-    </row>
-    <row r="27" spans="1:29" x14ac:dyDescent="0.3">
+      <c r="U26" s="4">
+        <v>141140</v>
+      </c>
+      <c r="V26" s="26" t="s">
+        <v>80</v>
+      </c>
+      <c r="W26" s="3">
+        <v>0.22</v>
+      </c>
+      <c r="X26" s="3">
+        <v>0.25</v>
+      </c>
+      <c r="AC26" s="4">
+        <f>U26*(1-W26)</f>
+        <v>110089.2</v>
+      </c>
+      <c r="AD26" s="26" t="s">
+        <v>79</v>
+      </c>
+      <c r="AE26" s="4">
+        <f>U26*(1-X26)</f>
+        <v>105855</v>
+      </c>
+      <c r="AF26" s="26" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="27" spans="1:37" x14ac:dyDescent="0.3">
       <c r="A27" s="1">
         <v>26</v>
       </c>
@@ -1556,10 +2703,66 @@
       <c r="C27" s="1" t="s">
         <v>53</v>
       </c>
+      <c r="D27" s="1" t="s">
+        <v>89</v>
+      </c>
+      <c r="E27" s="1" t="s">
+        <v>91</v>
+      </c>
+      <c r="F27" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="G27" s="1" t="s">
+        <v>108</v>
+      </c>
+      <c r="H27" s="1" t="s">
+        <v>110</v>
+      </c>
+      <c r="I27" s="1">
+        <v>80</v>
+      </c>
+      <c r="M27" s="1" t="s">
+        <v>83</v>
+      </c>
+      <c r="N27" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="O27" s="1">
+        <v>636</v>
+      </c>
+      <c r="P27" s="1">
+        <v>939</v>
+      </c>
       <c r="S27" s="11"/>
       <c r="T27" s="6"/>
-    </row>
-    <row r="28" spans="1:29" x14ac:dyDescent="0.3">
+      <c r="U27" s="4">
+        <v>47700</v>
+      </c>
+      <c r="V27" s="1" t="s">
+        <v>80</v>
+      </c>
+      <c r="W27" s="3">
+        <v>0.25</v>
+      </c>
+      <c r="X27" s="3">
+        <v>0.3</v>
+      </c>
+      <c r="AC27" s="4">
+        <f>U27*(1-W27)</f>
+        <v>35775</v>
+      </c>
+      <c r="AD27" s="26" t="s">
+        <v>79</v>
+      </c>
+      <c r="AE27" s="4">
+        <f>U27*(1-X27)</f>
+        <v>33390</v>
+      </c>
+      <c r="AF27" s="26" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="28" spans="1:37" x14ac:dyDescent="0.3">
       <c r="A28" s="1">
         <v>27</v>
       </c>
@@ -1569,10 +2772,44 @@
       <c r="C28" s="1" t="s">
         <v>53</v>
       </c>
+      <c r="E28" s="1" t="s">
+        <v>90</v>
+      </c>
+      <c r="F28" s="1" t="s">
+        <v>111</v>
+      </c>
+      <c r="G28" s="1" t="s">
+        <v>111</v>
+      </c>
+      <c r="H28" s="1" t="s">
+        <v>112</v>
+      </c>
+      <c r="I28" s="1">
+        <v>1700</v>
+      </c>
+      <c r="J28" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="K28" s="1" t="s">
+        <v>113</v>
+      </c>
+      <c r="M28" s="1" t="s">
+        <v>83</v>
+      </c>
       <c r="S28" s="11"/>
       <c r="T28" s="6"/>
-    </row>
-    <row r="29" spans="1:29" x14ac:dyDescent="0.3">
+      <c r="W28" s="3">
+        <v>0.16800000000000001</v>
+      </c>
+      <c r="X28" s="3">
+        <v>0.2235</v>
+      </c>
+      <c r="AC28" s="4"/>
+      <c r="AD28" s="26"/>
+      <c r="AE28" s="4"/>
+      <c r="AF28" s="26"/>
+    </row>
+    <row r="29" spans="1:37" x14ac:dyDescent="0.3">
       <c r="A29" s="1">
         <v>28</v>
       </c>
@@ -1582,10 +2819,75 @@
       <c r="C29" s="1" t="s">
         <v>53</v>
       </c>
+      <c r="D29" s="1" t="s">
+        <v>89</v>
+      </c>
+      <c r="E29" s="1" t="s">
+        <v>91</v>
+      </c>
+      <c r="F29" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="G29" s="27" t="s">
+        <v>119</v>
+      </c>
+      <c r="H29" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="I29" s="1">
+        <v>80</v>
+      </c>
+      <c r="J29" s="28" t="s">
+        <v>95</v>
+      </c>
+      <c r="K29" s="1" t="s">
+        <v>82</v>
+      </c>
+      <c r="M29" s="1" t="s">
+        <v>98</v>
+      </c>
+      <c r="N29" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="O29" s="1">
+        <v>636</v>
+      </c>
+      <c r="P29" s="1">
+        <v>939</v>
+      </c>
+      <c r="R29" s="1">
+        <v>500</v>
+      </c>
       <c r="S29" s="11"/>
       <c r="T29" s="6"/>
-    </row>
-    <row r="30" spans="1:29" x14ac:dyDescent="0.3">
+      <c r="U29" s="4">
+        <v>36540</v>
+      </c>
+      <c r="V29" s="28" t="s">
+        <v>80</v>
+      </c>
+      <c r="W29" s="3">
+        <v>0.08</v>
+      </c>
+      <c r="X29" s="3">
+        <v>0.125</v>
+      </c>
+      <c r="AC29" s="4">
+        <f>U29*(1-W29)</f>
+        <v>33616.800000000003</v>
+      </c>
+      <c r="AD29" s="28" t="s">
+        <v>79</v>
+      </c>
+      <c r="AE29" s="4">
+        <f>U29*(1-X29)</f>
+        <v>31972.5</v>
+      </c>
+      <c r="AF29" s="28" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="30" spans="1:37" x14ac:dyDescent="0.3">
       <c r="A30" s="1">
         <v>29</v>
       </c>
@@ -1595,10 +2897,75 @@
       <c r="C30" s="1" t="s">
         <v>53</v>
       </c>
+      <c r="D30" s="1" t="s">
+        <v>89</v>
+      </c>
+      <c r="E30" s="28" t="s">
+        <v>91</v>
+      </c>
+      <c r="F30" s="28" t="s">
+        <v>70</v>
+      </c>
+      <c r="G30" s="28" t="s">
+        <v>119</v>
+      </c>
+      <c r="H30" s="28" t="s">
+        <v>73</v>
+      </c>
+      <c r="I30" s="1">
+        <v>80</v>
+      </c>
+      <c r="J30" s="28" t="s">
+        <v>95</v>
+      </c>
+      <c r="K30" s="28" t="s">
+        <v>117</v>
+      </c>
+      <c r="M30" s="28" t="s">
+        <v>98</v>
+      </c>
+      <c r="N30" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="O30" s="1">
+        <v>636</v>
+      </c>
+      <c r="P30" s="1">
+        <v>939</v>
+      </c>
+      <c r="R30" s="1">
+        <v>500</v>
+      </c>
       <c r="S30" s="11"/>
       <c r="T30" s="6"/>
-    </row>
-    <row r="31" spans="1:29" x14ac:dyDescent="0.3">
+      <c r="U30" s="4">
+        <v>39109</v>
+      </c>
+      <c r="V30" s="28" t="s">
+        <v>80</v>
+      </c>
+      <c r="W30" s="3">
+        <v>0.08</v>
+      </c>
+      <c r="X30" s="3">
+        <v>0.125</v>
+      </c>
+      <c r="AC30" s="4">
+        <f>U30*(1-W30)</f>
+        <v>35980.28</v>
+      </c>
+      <c r="AD30" s="28" t="s">
+        <v>79</v>
+      </c>
+      <c r="AE30" s="4">
+        <f>U30*(1-X30)</f>
+        <v>34220.375</v>
+      </c>
+      <c r="AF30" s="28" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="31" spans="1:37" x14ac:dyDescent="0.3">
       <c r="A31" s="1">
         <v>30</v>
       </c>
@@ -1608,10 +2975,25 @@
       <c r="C31" s="1" t="s">
         <v>53</v>
       </c>
+      <c r="F31" s="28" t="s">
+        <v>70</v>
+      </c>
+      <c r="G31" s="28" t="s">
+        <v>120</v>
+      </c>
+      <c r="H31" s="28" t="s">
+        <v>73</v>
+      </c>
       <c r="S31" s="11"/>
       <c r="T31" s="6"/>
-    </row>
-    <row r="32" spans="1:29" x14ac:dyDescent="0.3">
+      <c r="W31" s="3">
+        <v>0.26</v>
+      </c>
+      <c r="X31" s="3">
+        <v>0.28999999999999998</v>
+      </c>
+    </row>
+    <row r="32" spans="1:37" x14ac:dyDescent="0.3">
       <c r="A32" s="1">
         <v>31</v>
       </c>
@@ -1621,10 +3003,46 @@
       <c r="C32" s="1" t="s">
         <v>53</v>
       </c>
+      <c r="D32" s="1" t="s">
+        <v>121</v>
+      </c>
+      <c r="E32" s="1" t="s">
+        <v>90</v>
+      </c>
+      <c r="F32" s="1" t="s">
+        <v>122</v>
+      </c>
+      <c r="G32" s="1" t="s">
+        <v>122</v>
+      </c>
+      <c r="H32" s="1" t="s">
+        <v>124</v>
+      </c>
+      <c r="I32" s="1">
+        <v>450</v>
+      </c>
+      <c r="J32" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="K32" s="1" t="s">
+        <v>82</v>
+      </c>
       <c r="S32" s="11"/>
       <c r="T32" s="6"/>
-    </row>
-    <row r="33" spans="1:22" x14ac:dyDescent="0.3">
+      <c r="U32" s="4">
+        <v>3546.5</v>
+      </c>
+      <c r="V32" s="28" t="s">
+        <v>50</v>
+      </c>
+      <c r="W32" s="3">
+        <v>0.2636</v>
+      </c>
+      <c r="X32" s="3">
+        <v>0.27360000000000001</v>
+      </c>
+    </row>
+    <row r="33" spans="1:37" x14ac:dyDescent="0.3">
       <c r="A33" s="1">
         <v>32</v>
       </c>
@@ -1634,10 +3052,72 @@
       <c r="C33" s="1" t="s">
         <v>53</v>
       </c>
+      <c r="D33" s="28" t="s">
+        <v>89</v>
+      </c>
+      <c r="E33" s="28" t="s">
+        <v>90</v>
+      </c>
+      <c r="F33" s="28" t="s">
+        <v>122</v>
+      </c>
+      <c r="G33" s="28" t="s">
+        <v>122</v>
+      </c>
+      <c r="H33" s="28" t="s">
+        <v>124</v>
+      </c>
+      <c r="I33" s="28">
+        <v>450</v>
+      </c>
+      <c r="J33" s="28" t="s">
+        <v>75</v>
+      </c>
+      <c r="K33" s="28" t="s">
+        <v>82</v>
+      </c>
+      <c r="N33" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="O33" s="1">
+        <v>636</v>
+      </c>
+      <c r="P33" s="1">
+        <v>939</v>
+      </c>
       <c r="S33" s="11"/>
       <c r="T33" s="6"/>
-    </row>
-    <row r="34" spans="1:22" x14ac:dyDescent="0.3">
+      <c r="U33" s="4">
+        <v>3546.5</v>
+      </c>
+      <c r="V33" s="28" t="s">
+        <v>50</v>
+      </c>
+      <c r="W33" s="3">
+        <v>0.2636</v>
+      </c>
+      <c r="X33" s="3">
+        <v>0.27360000000000001</v>
+      </c>
+      <c r="Y33" s="4">
+        <f>U33*(1-W33)</f>
+        <v>2611.6425999999997</v>
+      </c>
+      <c r="Z33" s="28" t="s">
+        <v>50</v>
+      </c>
+      <c r="AA33" s="4">
+        <f>U33*(1-X33)</f>
+        <v>2576.1776</v>
+      </c>
+      <c r="AB33" s="28" t="s">
+        <v>50</v>
+      </c>
+      <c r="AK33" s="3">
+        <v>0.2636</v>
+      </c>
+    </row>
+    <row r="34" spans="1:37" x14ac:dyDescent="0.3">
       <c r="A34" s="1">
         <v>33</v>
       </c>
@@ -1647,10 +3127,74 @@
       <c r="C34" s="1" t="s">
         <v>53</v>
       </c>
+      <c r="D34" s="28" t="s">
+        <v>89</v>
+      </c>
+      <c r="E34" s="28" t="s">
+        <v>90</v>
+      </c>
+      <c r="F34" s="28" t="s">
+        <v>122</v>
+      </c>
+      <c r="G34" s="28" t="s">
+        <v>122</v>
+      </c>
+      <c r="H34" s="28" t="s">
+        <v>124</v>
+      </c>
+      <c r="I34" s="28">
+        <v>450</v>
+      </c>
+      <c r="J34" s="28" t="s">
+        <v>75</v>
+      </c>
+      <c r="K34" s="28" t="s">
+        <v>82</v>
+      </c>
+      <c r="L34" s="28"/>
+      <c r="M34" s="28"/>
+      <c r="N34" s="28" t="s">
+        <v>118</v>
+      </c>
+      <c r="O34" s="1">
+        <v>788</v>
+      </c>
+      <c r="P34" s="1">
+        <v>1091</v>
+      </c>
       <c r="S34" s="11"/>
       <c r="T34" s="6"/>
-    </row>
-    <row r="35" spans="1:22" x14ac:dyDescent="0.3">
+      <c r="U34" s="4">
+        <v>3546.5</v>
+      </c>
+      <c r="V34" s="28" t="s">
+        <v>50</v>
+      </c>
+      <c r="W34" s="3">
+        <v>0.2636</v>
+      </c>
+      <c r="X34" s="3">
+        <v>0.27360000000000001</v>
+      </c>
+      <c r="Y34" s="4">
+        <f>U34*(1-W34)</f>
+        <v>2611.6425999999997</v>
+      </c>
+      <c r="Z34" s="28" t="s">
+        <v>50</v>
+      </c>
+      <c r="AA34" s="4">
+        <f>U34*(1-X34)</f>
+        <v>2576.1776</v>
+      </c>
+      <c r="AB34" s="28" t="s">
+        <v>50</v>
+      </c>
+      <c r="AK34" s="3">
+        <v>0.2636</v>
+      </c>
+    </row>
+    <row r="35" spans="1:37" x14ac:dyDescent="0.3">
       <c r="A35" s="1">
         <v>34</v>
       </c>
@@ -1660,10 +3204,69 @@
       <c r="C35" s="1" t="s">
         <v>53</v>
       </c>
+      <c r="D35" s="1" t="s">
+        <v>121</v>
+      </c>
+      <c r="E35" s="1" t="s">
+        <v>90</v>
+      </c>
+      <c r="F35" s="30" t="s">
+        <v>125</v>
+      </c>
+      <c r="G35" s="30" t="s">
+        <v>126</v>
+      </c>
+      <c r="H35" s="30" t="s">
+        <v>72</v>
+      </c>
+      <c r="I35" s="31">
+        <v>295</v>
+      </c>
+      <c r="J35" s="30" t="s">
+        <v>15</v>
+      </c>
+      <c r="K35" s="30" t="s">
+        <v>14</v>
+      </c>
+      <c r="M35" s="34" t="s">
+        <v>83</v>
+      </c>
+      <c r="O35" s="1">
+        <v>1100</v>
+      </c>
+      <c r="Q35" s="1">
+        <v>3</v>
+      </c>
       <c r="S35" s="11"/>
       <c r="T35" s="6"/>
-    </row>
-    <row r="36" spans="1:22" x14ac:dyDescent="0.3">
+      <c r="U35" s="4">
+        <v>2846500</v>
+      </c>
+      <c r="V35" s="34" t="s">
+        <v>101</v>
+      </c>
+      <c r="W35" s="3">
+        <v>0.36249999999999999</v>
+      </c>
+      <c r="X35" s="3">
+        <v>0.38</v>
+      </c>
+      <c r="Y35" s="4">
+        <f>U35*(1-W35)/1000</f>
+        <v>1814.6437499999997</v>
+      </c>
+      <c r="Z35" s="34" t="s">
+        <v>50</v>
+      </c>
+      <c r="AA35" s="4">
+        <f>U35*(1-X35)/1000</f>
+        <v>1764.83</v>
+      </c>
+      <c r="AB35" s="34" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="36" spans="1:37" x14ac:dyDescent="0.3">
       <c r="A36" s="1">
         <v>35</v>
       </c>
@@ -1673,10 +3276,69 @@
       <c r="C36" s="1" t="s">
         <v>53</v>
       </c>
+      <c r="D36" s="34" t="s">
+        <v>121</v>
+      </c>
+      <c r="E36" s="1" t="s">
+        <v>90</v>
+      </c>
+      <c r="F36" s="32" t="s">
+        <v>125</v>
+      </c>
+      <c r="G36" s="32" t="s">
+        <v>126</v>
+      </c>
+      <c r="H36" s="32" t="s">
+        <v>127</v>
+      </c>
+      <c r="I36" s="33">
+        <v>250</v>
+      </c>
+      <c r="J36" s="32" t="s">
+        <v>15</v>
+      </c>
+      <c r="K36" s="32" t="s">
+        <v>14</v>
+      </c>
+      <c r="M36" s="34" t="s">
+        <v>83</v>
+      </c>
+      <c r="O36" s="1">
+        <v>1100</v>
+      </c>
+      <c r="Q36" s="34">
+        <v>12</v>
+      </c>
       <c r="S36" s="11"/>
       <c r="T36" s="6"/>
-    </row>
-    <row r="37" spans="1:22" x14ac:dyDescent="0.3">
+      <c r="U36" s="4">
+        <v>2976500</v>
+      </c>
+      <c r="V36" s="34" t="s">
+        <v>101</v>
+      </c>
+      <c r="W36" s="3">
+        <v>0.34250000000000003</v>
+      </c>
+      <c r="X36" s="3">
+        <v>0.38</v>
+      </c>
+      <c r="Y36" s="4">
+        <f>U36*(1-W36)/1000</f>
+        <v>1957.0487499999999</v>
+      </c>
+      <c r="Z36" s="34" t="s">
+        <v>50</v>
+      </c>
+      <c r="AA36" s="4">
+        <f t="shared" ref="AA36:AA38" si="1">U36*(1-X36)/1000</f>
+        <v>1845.43</v>
+      </c>
+      <c r="AB36" s="34" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="37" spans="1:37" x14ac:dyDescent="0.3">
       <c r="A37" s="1">
         <v>36</v>
       </c>
@@ -1686,10 +3348,69 @@
       <c r="C37" s="1" t="s">
         <v>53</v>
       </c>
+      <c r="D37" s="34" t="s">
+        <v>121</v>
+      </c>
+      <c r="E37" s="1" t="s">
+        <v>90</v>
+      </c>
+      <c r="F37" s="34" t="s">
+        <v>130</v>
+      </c>
+      <c r="G37" s="34" t="s">
+        <v>130</v>
+      </c>
+      <c r="H37" s="34" t="s">
+        <v>123</v>
+      </c>
+      <c r="I37" s="34">
+        <v>300</v>
+      </c>
+      <c r="J37" s="34" t="s">
+        <v>15</v>
+      </c>
+      <c r="K37" s="35" t="s">
+        <v>14</v>
+      </c>
+      <c r="M37" s="34" t="s">
+        <v>83</v>
+      </c>
+      <c r="O37" s="1">
+        <v>1100</v>
+      </c>
+      <c r="Q37" s="34">
+        <v>3</v>
+      </c>
       <c r="S37" s="11"/>
       <c r="T37" s="6"/>
-    </row>
-    <row r="38" spans="1:22" x14ac:dyDescent="0.3">
+      <c r="U37" s="4">
+        <v>3216000</v>
+      </c>
+      <c r="V37" s="34" t="s">
+        <v>101</v>
+      </c>
+      <c r="W37" s="3">
+        <v>0.35449999999999998</v>
+      </c>
+      <c r="X37" s="3">
+        <v>0.38</v>
+      </c>
+      <c r="Y37" s="4">
+        <f>U37*(1-W37)/1000</f>
+        <v>2075.9279999999999</v>
+      </c>
+      <c r="Z37" s="34" t="s">
+        <v>50</v>
+      </c>
+      <c r="AA37" s="4">
+        <f t="shared" si="1"/>
+        <v>1993.92</v>
+      </c>
+      <c r="AB37" s="34" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="38" spans="1:37" x14ac:dyDescent="0.3">
       <c r="A38" s="1">
         <v>37</v>
       </c>
@@ -1699,10 +3420,69 @@
       <c r="C38" s="1" t="s">
         <v>53</v>
       </c>
+      <c r="D38" s="34" t="s">
+        <v>121</v>
+      </c>
+      <c r="E38" s="1" t="s">
+        <v>90</v>
+      </c>
+      <c r="F38" s="29" t="s">
+        <v>128</v>
+      </c>
+      <c r="G38" s="29" t="s">
+        <v>129</v>
+      </c>
+      <c r="H38" s="29" t="s">
+        <v>7</v>
+      </c>
+      <c r="I38" s="29">
+        <v>300</v>
+      </c>
+      <c r="J38" s="29" t="s">
+        <v>15</v>
+      </c>
+      <c r="K38" s="29" t="s">
+        <v>14</v>
+      </c>
+      <c r="M38" s="34" t="s">
+        <v>83</v>
+      </c>
+      <c r="O38" s="1">
+        <v>1100</v>
+      </c>
+      <c r="Q38" s="34">
+        <v>12</v>
+      </c>
       <c r="S38" s="11"/>
       <c r="T38" s="6"/>
-    </row>
-    <row r="39" spans="1:22" x14ac:dyDescent="0.3">
+      <c r="U38" s="4">
+        <v>3159000</v>
+      </c>
+      <c r="V38" s="34" t="s">
+        <v>101</v>
+      </c>
+      <c r="W38" s="3">
+        <v>0.36249999999999999</v>
+      </c>
+      <c r="X38" s="3">
+        <v>0.38</v>
+      </c>
+      <c r="Y38" s="4">
+        <f>U38*(1-W38)/1000</f>
+        <v>2013.8624999999997</v>
+      </c>
+      <c r="Z38" s="34" t="s">
+        <v>50</v>
+      </c>
+      <c r="AA38" s="4">
+        <f t="shared" si="1"/>
+        <v>1958.58</v>
+      </c>
+      <c r="AB38" s="34" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="39" spans="1:37" x14ac:dyDescent="0.3">
       <c r="A39" s="1">
         <v>38</v>
       </c>
@@ -1712,10 +3492,28 @@
       <c r="C39" s="1" t="s">
         <v>52</v>
       </c>
+      <c r="D39" s="1" t="s">
+        <v>131</v>
+      </c>
+      <c r="E39" s="36" t="s">
+        <v>132</v>
+      </c>
+      <c r="F39" s="36" t="s">
+        <v>84</v>
+      </c>
+      <c r="G39" s="36" t="s">
+        <v>84</v>
+      </c>
+      <c r="H39" s="36" t="s">
+        <v>84</v>
+      </c>
+      <c r="I39" s="36">
+        <v>80</v>
+      </c>
       <c r="U39" s="11"/>
       <c r="V39" s="6"/>
     </row>
-    <row r="40" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:37" x14ac:dyDescent="0.3">
       <c r="A40" s="1">
         <v>39</v>
       </c>
@@ -1725,10 +3523,29 @@
       <c r="C40" s="1" t="s">
         <v>52</v>
       </c>
+      <c r="D40" s="1" t="s">
+        <v>131</v>
+      </c>
+      <c r="E40" s="38" t="s">
+        <v>132</v>
+      </c>
+      <c r="F40" s="38" t="s">
+        <v>134</v>
+      </c>
+      <c r="G40" s="38" t="s">
+        <v>135</v>
+      </c>
+      <c r="H40" s="38" t="s">
+        <v>136</v>
+      </c>
+      <c r="I40" s="38">
+        <v>75</v>
+      </c>
+      <c r="J40" s="37"/>
       <c r="U40" s="11"/>
       <c r="V40" s="6"/>
     </row>
-    <row r="41" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:37" x14ac:dyDescent="0.3">
       <c r="A41" s="1">
         <v>40</v>
       </c>
@@ -1738,10 +3555,29 @@
       <c r="C41" s="1" t="s">
         <v>52</v>
       </c>
+      <c r="D41" s="1" t="s">
+        <v>131</v>
+      </c>
+      <c r="E41" s="40" t="s">
+        <v>132</v>
+      </c>
+      <c r="F41" s="40" t="s">
+        <v>137</v>
+      </c>
+      <c r="G41" s="40" t="s">
+        <v>137</v>
+      </c>
+      <c r="H41" s="40" t="s">
+        <v>72</v>
+      </c>
+      <c r="I41" s="40">
+        <v>80</v>
+      </c>
+      <c r="J41" s="39"/>
       <c r="U41" s="11"/>
       <c r="V41" s="6"/>
     </row>
-    <row r="42" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:37" x14ac:dyDescent="0.3">
       <c r="A42" s="1">
         <v>41</v>
       </c>
@@ -1751,10 +3587,34 @@
       <c r="C42" s="1" t="s">
         <v>52</v>
       </c>
+      <c r="D42" s="1" t="s">
+        <v>131</v>
+      </c>
+      <c r="E42" s="41" t="s">
+        <v>132</v>
+      </c>
+      <c r="F42" s="41" t="s">
+        <v>138</v>
+      </c>
+      <c r="G42" s="41" t="s">
+        <v>138</v>
+      </c>
+      <c r="H42" s="41" t="s">
+        <v>6</v>
+      </c>
+      <c r="I42" s="41">
+        <v>80</v>
+      </c>
+      <c r="J42" s="41" t="s">
+        <v>94</v>
+      </c>
+      <c r="K42" s="41" t="s">
+        <v>139</v>
+      </c>
       <c r="U42" s="11"/>
       <c r="V42" s="6"/>
     </row>
-    <row r="43" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:37" x14ac:dyDescent="0.3">
       <c r="A43" s="1">
         <v>42</v>
       </c>
@@ -1764,10 +3624,29 @@
       <c r="C43" s="1" t="s">
         <v>52</v>
       </c>
+      <c r="D43" s="1" t="s">
+        <v>131</v>
+      </c>
+      <c r="E43" s="43" t="s">
+        <v>132</v>
+      </c>
+      <c r="F43" s="43" t="s">
+        <v>140</v>
+      </c>
+      <c r="G43" s="43" t="s">
+        <v>141</v>
+      </c>
+      <c r="H43" s="43" t="s">
+        <v>142</v>
+      </c>
+      <c r="I43" s="43">
+        <v>75</v>
+      </c>
+      <c r="J43" s="42"/>
       <c r="U43" s="11"/>
       <c r="V43" s="6"/>
     </row>
-    <row r="44" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:37" x14ac:dyDescent="0.3">
       <c r="A44" s="1">
         <v>43</v>
       </c>
@@ -1777,10 +3656,34 @@
       <c r="C44" s="1" t="s">
         <v>52</v>
       </c>
+      <c r="D44" s="1" t="s">
+        <v>131</v>
+      </c>
+      <c r="E44" s="44" t="s">
+        <v>132</v>
+      </c>
+      <c r="F44" s="44" t="s">
+        <v>143</v>
+      </c>
+      <c r="G44" s="44" t="s">
+        <v>144</v>
+      </c>
+      <c r="H44" s="44" t="s">
+        <v>109</v>
+      </c>
+      <c r="I44" s="44">
+        <v>80</v>
+      </c>
+      <c r="J44" s="45" t="s">
+        <v>94</v>
+      </c>
+      <c r="K44" s="45" t="s">
+        <v>147</v>
+      </c>
       <c r="U44" s="11"/>
       <c r="V44" s="6"/>
     </row>
-    <row r="45" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:37" x14ac:dyDescent="0.3">
       <c r="A45" s="1">
         <v>44</v>
       </c>
@@ -1790,10 +3693,37 @@
       <c r="C45" s="1" t="s">
         <v>52</v>
       </c>
+      <c r="D45" s="1" t="s">
+        <v>131</v>
+      </c>
+      <c r="E45" s="34" t="s">
+        <v>133</v>
+      </c>
+      <c r="F45" s="45" t="s">
+        <v>132</v>
+      </c>
+      <c r="G45" s="45" t="s">
+        <v>145</v>
+      </c>
+      <c r="H45" s="45" t="s">
+        <v>145</v>
+      </c>
+      <c r="I45" s="45" t="s">
+        <v>142</v>
+      </c>
+      <c r="J45" s="45">
+        <v>80</v>
+      </c>
+      <c r="K45" s="45" t="s">
+        <v>94</v>
+      </c>
+      <c r="L45" s="45" t="s">
+        <v>146</v>
+      </c>
       <c r="U45" s="11"/>
       <c r="V45" s="6"/>
     </row>
-    <row r="46" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:37" x14ac:dyDescent="0.3">
       <c r="A46" s="1">
         <v>45</v>
       </c>
@@ -1803,10 +3733,16 @@
       <c r="C46" s="1" t="s">
         <v>52</v>
       </c>
+      <c r="D46" s="1" t="s">
+        <v>131</v>
+      </c>
+      <c r="E46" s="34" t="s">
+        <v>133</v>
+      </c>
       <c r="U46" s="11"/>
       <c r="V46" s="6"/>
     </row>
-    <row r="47" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:37" x14ac:dyDescent="0.3">
       <c r="A47" s="1">
         <v>46</v>
       </c>
@@ -1816,10 +3752,16 @@
       <c r="C47" s="1" t="s">
         <v>52</v>
       </c>
+      <c r="D47" s="1" t="s">
+        <v>131</v>
+      </c>
+      <c r="E47" s="34" t="s">
+        <v>133</v>
+      </c>
       <c r="U47" s="11"/>
       <c r="V47" s="6"/>
     </row>
-    <row r="48" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:37" x14ac:dyDescent="0.3">
       <c r="A48" s="1">
         <v>47</v>
       </c>
@@ -1828,6 +3770,12 @@
       </c>
       <c r="C48" s="1" t="s">
         <v>52</v>
+      </c>
+      <c r="D48" s="1" t="s">
+        <v>131</v>
+      </c>
+      <c r="E48" s="34" t="s">
+        <v>133</v>
       </c>
       <c r="U48" s="11"/>
       <c r="V48" s="6"/>
@@ -1842,6 +3790,12 @@
       <c r="C49" s="1" t="s">
         <v>52</v>
       </c>
+      <c r="D49" s="1" t="s">
+        <v>89</v>
+      </c>
+      <c r="E49" s="34" t="s">
+        <v>133</v>
+      </c>
       <c r="U49" s="11"/>
       <c r="V49" s="6"/>
     </row>
@@ -1855,6 +3809,12 @@
       <c r="C50" s="1" t="s">
         <v>52</v>
       </c>
+      <c r="D50" s="34" t="s">
+        <v>89</v>
+      </c>
+      <c r="E50" s="34" t="s">
+        <v>133</v>
+      </c>
       <c r="U50" s="11"/>
       <c r="V50" s="6"/>
     </row>
@@ -1867,6 +3827,12 @@
       </c>
       <c r="C51" s="1" t="s">
         <v>52</v>
+      </c>
+      <c r="D51" s="34" t="s">
+        <v>89</v>
+      </c>
+      <c r="E51" s="34" t="s">
+        <v>133</v>
       </c>
       <c r="U51" s="11"/>
       <c r="V51" s="6"/>
@@ -1879,6 +3845,7 @@
   </autoFilter>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -2071,7 +4038,7 @@
       <c r="C4" s="1" t="s">
         <v>52</v>
       </c>
-      <c r="U4" s="13"/>
+      <c r="U4" s="12"/>
       <c r="V4" s="6"/>
     </row>
     <row r="5" spans="1:39" x14ac:dyDescent="0.3">
@@ -2084,7 +4051,7 @@
       <c r="C5" s="1" t="s">
         <v>52</v>
       </c>
-      <c r="U5" s="13"/>
+      <c r="U5" s="12"/>
       <c r="V5" s="6"/>
     </row>
     <row r="6" spans="1:39" x14ac:dyDescent="0.3">
@@ -2097,7 +4064,7 @@
       <c r="C6" s="1" t="s">
         <v>52</v>
       </c>
-      <c r="U6" s="13"/>
+      <c r="U6" s="12"/>
       <c r="V6" s="6"/>
     </row>
     <row r="7" spans="1:39" x14ac:dyDescent="0.3">
@@ -2110,7 +4077,7 @@
       <c r="C7" s="1" t="s">
         <v>52</v>
       </c>
-      <c r="U7" s="13"/>
+      <c r="U7" s="12"/>
       <c r="V7" s="6"/>
     </row>
     <row r="8" spans="1:39" x14ac:dyDescent="0.3">
@@ -2694,7 +4661,7 @@
       <sortCondition ref="E1:E24"/>
     </sortState>
   </autoFilter>
-  <phoneticPr fontId="4" type="noConversion"/>
+  <phoneticPr fontId="3" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
